--- a/biology/Zoologie/Dik-dik_de_Kirk/Dik-dik_de_Kirk.xlsx
+++ b/biology/Zoologie/Dik-dik_de_Kirk/Dik-dik_de_Kirk.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Madoqua kirkii
 Le dik-dik de Kirk (Madoqua kirki) est un mammifère de la famille des bovidés et de la sous-famille des antilopes. Il fait partie d’un genre d’antilopes naines.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le dik-dik de Kirk vit dans les savanes de l'est et du sud-ouest de l'Afrique. Il préfère les milieux couverts et secs.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Très svelte, son pelage est gris brun ou rougeâtre. Il mesure de 55 à 77 cm pour un poids de 2,7 à 6,5 kg. Les mâles se reconnaissent à leurs petites cornes qui peuvent atteindre 11 cm.
 			Mâle.
@@ -576,7 +592,9 @@
           <t>Écologie et comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Globalement diurne, le dik-dik de Kirk est surtout actif avant et après le coucher du soleil. Il se nourrit de feuilles, de fruits et d’herbe.
 </t>
